--- a/nPIMs_summary.xlsx
+++ b/nPIMs_summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinge\Documents\BSc\Y3\Research Exercise (71260)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03227F6-26DE-4DE7-B0A3-D3DFC4C4E287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384792F0-AB10-4D2D-B7B2-B330774815C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nPIMS_summary" sheetId="2" r:id="rId1"/>
-    <sheet name="nPIMs_table" sheetId="1" r:id="rId2"/>
+    <sheet name="cognate_toxins" sheetId="4" r:id="rId2"/>
+    <sheet name="nPIMs_table" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="204">
   <si>
     <t>organism</t>
   </si>
@@ -78,9 +79,6 @@
     <t>PT1_top100_lowest_percent_identity</t>
   </si>
   <si>
-    <t>PIM1.1</t>
-  </si>
-  <si>
     <t>WP_205420459.1</t>
   </si>
   <si>
@@ -99,9 +97,6 @@
     <t>Escherichia marmotae</t>
   </si>
   <si>
-    <t>PIM1.2</t>
-  </si>
-  <si>
     <t>WP_233679651.1</t>
   </si>
   <si>
@@ -138,9 +133,6 @@
     <t>Actinobacillus equuli subsp equuli</t>
   </si>
   <si>
-    <t>PIM3.2</t>
-  </si>
-  <si>
     <t>WP_278225932.1</t>
   </si>
   <si>
@@ -159,9 +151,6 @@
     <t>PT7_top100_lowest_percent_identity</t>
   </si>
   <si>
-    <t>PIM7.1</t>
-  </si>
-  <si>
     <t>WP_235624429.1</t>
   </si>
   <si>
@@ -177,9 +166,6 @@
     <t>Campylobacter concisus</t>
   </si>
   <si>
-    <t>PIM7.2</t>
-  </si>
-  <si>
     <t>WP_141083824.1</t>
   </si>
   <si>
@@ -195,9 +181,6 @@
     <t>Bacillus mycoides</t>
   </si>
   <si>
-    <t>PIM7.3</t>
-  </si>
-  <si>
     <t>WP_149191159.1</t>
   </si>
   <si>
@@ -213,9 +196,6 @@
     <t>Weissella confusa</t>
   </si>
   <si>
-    <t>PIM7.4</t>
-  </si>
-  <si>
     <t>WP_199404901.1</t>
   </si>
   <si>
@@ -228,9 +208,6 @@
     <t>MTYFFFKQLKIIVTVNVTDVFTLEFFNTPFATTGGENESEESNFVTSIFGLADIELTQWLSNNELILRGEHITGSYVVPFSFSSQVTIDEFSFNEGNLKTKLHGSLPYGDFDNYDYDIVGQLIIEKTPDITNDLINSSREDFIMNYKKN</t>
   </si>
   <si>
-    <t>PIM7.5</t>
-  </si>
-  <si>
     <t>WP_199405059.1</t>
   </si>
   <si>
@@ -303,9 +280,6 @@
     <t>Clostridium tetanomorphum</t>
   </si>
   <si>
-    <t>PIM8.4</t>
-  </si>
-  <si>
     <t>WP_035151684.1</t>
   </si>
   <si>
@@ -321,9 +295,6 @@
     <t>Gracilibacillus suaedae</t>
   </si>
   <si>
-    <t>PIM8.5</t>
-  </si>
-  <si>
     <t>WP_208587654.1</t>
   </si>
   <si>
@@ -339,9 +310,6 @@
     <t>Enterococcus sp BWB1 3</t>
   </si>
   <si>
-    <t>PIM8.6</t>
-  </si>
-  <si>
     <t>WP_202068604.1</t>
   </si>
   <si>
@@ -357,9 +325,6 @@
     <t>Marinomonas sp MED121</t>
   </si>
   <si>
-    <t>PIM8.7</t>
-  </si>
-  <si>
     <t>WP_009833611.1</t>
   </si>
   <si>
@@ -375,9 +340,6 @@
     <t>Listeria welshimeri</t>
   </si>
   <si>
-    <t>PIM8.8</t>
-  </si>
-  <si>
     <t>WP_228474820.1</t>
   </si>
   <si>
@@ -391,9 +353,6 @@
   </si>
   <si>
     <t>Clostridium sp DSM 100503</t>
-  </si>
-  <si>
-    <t>PIM8.9</t>
   </si>
   <si>
     <t>WP_257447350.1</t>
@@ -607,6 +566,96 @@
   </si>
   <si>
     <t>nPIM6</t>
+  </si>
+  <si>
+    <t>toxin_foldseek</t>
+  </si>
+  <si>
+    <t>toxin_foldseek_organism</t>
+  </si>
+  <si>
+    <t>Putative Rhs family protein</t>
+  </si>
+  <si>
+    <t>Klebsiella aerogenes KCTC 2190</t>
+  </si>
+  <si>
+    <t>RHS repeat-associated core domain protein</t>
+  </si>
+  <si>
+    <t>Leptospira interrogans serovar Australis str. 200703203</t>
+  </si>
+  <si>
+    <t>WXG100 family type VII secretion target, RNAse_A_bac domain-containing protein</t>
+  </si>
+  <si>
+    <t>Paenibacillus sp. OT2-17, Paenibacillus sp. Aloe-11</t>
+  </si>
+  <si>
+    <t>LXG domain-containing protein</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Type IV secretion protein Rhs</t>
+  </si>
+  <si>
+    <t>holomolog_of</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>PIM1</t>
+  </si>
+  <si>
+    <t>PIM3</t>
+  </si>
+  <si>
+    <t>PIM7</t>
+  </si>
+  <si>
+    <t>PIM8</t>
+  </si>
+  <si>
+    <t>tox_new_name</t>
+  </si>
+  <si>
+    <t>nPT3</t>
+  </si>
+  <si>
+    <t>nPT2</t>
+  </si>
+  <si>
+    <t>nPT4</t>
+  </si>
+  <si>
+    <t>nPT5</t>
+  </si>
+  <si>
+    <t>nPT6</t>
+  </si>
+  <si>
+    <t>similar to pim1 and pt1 (praticaly the exact same)</t>
+  </si>
+  <si>
+    <t>new_toxin</t>
+  </si>
+  <si>
+    <t>PT3.1</t>
+  </si>
+  <si>
+    <t>PT8.1</t>
+  </si>
+  <si>
+    <t>PT8.2</t>
+  </si>
+  <si>
+    <t>PT8.3</t>
+  </si>
+  <si>
+    <t>PT8.4</t>
   </si>
 </sst>
 </file>
@@ -688,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,6 +772,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,10 +1080,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9822348A-B397-4A1B-8F06-F66F6AD5D164}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1077,10 +1129,10 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -1091,25 +1143,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H2">
         <v>0.497</v>
@@ -1129,25 +1181,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H3">
         <v>0.45100000000000001</v>
@@ -1167,25 +1219,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="H4">
         <v>0.53</v>
@@ -1205,25 +1257,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H5">
         <v>0.443</v>
@@ -1243,25 +1295,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H6">
         <v>0.41299999999999998</v>
@@ -1281,25 +1333,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <v>0.35299999999999998</v>
@@ -1324,13 +1376,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8149FB-C62B-4109-B8BB-9C59AC0D5976}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="80" style="3" customWidth="1"/>
+    <col min="12" max="12" width="60" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3">
+        <v>133</v>
+      </c>
+      <c r="J2" s="3">
+        <v>162</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3">
+        <v>453</v>
+      </c>
+      <c r="J3" s="3">
+        <v>136</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3">
+        <v>358</v>
+      </c>
+      <c r="J4" s="3">
+        <v>73</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="3">
+        <v>419</v>
+      </c>
+      <c r="J5" s="3">
+        <v>159</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="3">
+        <v>775</v>
+      </c>
+      <c r="J6" s="3">
+        <v>113</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" tooltip="Paenibacillus sp. OT2-17" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=2691605" xr:uid="{6700D16A-9398-496A-B894-48C932C3823B}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="topRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1389,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -1398,25 +1721,25 @@
         <v>7</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>10</v>
@@ -1425,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1436,34 +1759,34 @@
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="M2" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P2" s="10">
         <v>7</v>
@@ -1481,110 +1804,113 @@
         <v>186</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="N3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="10">
         <v>7</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="11">
         <v>0.90347139190821202</v>
       </c>
-      <c r="S3" t="b">
+      <c r="S3" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="9">
         <v>186</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="9">
         <v>122</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7">
         <v>7</v>
@@ -1604,40 +1930,40 @@
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7"/>
       <c r="T5" s="4">
@@ -1647,45 +1973,45 @@
         <v>152</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="K6" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="N6" s="9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P6" s="10">
         <v>7</v>
@@ -1703,42 +2029,42 @@
         <v>124</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="O7" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7"/>
       <c r="T7" s="4">
@@ -1748,48 +2074,48 @@
         <v>127</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P8" s="10">
         <v>7</v>
@@ -1807,45 +2133,45 @@
         <v>117</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P9" s="10">
         <v>7</v>
@@ -1863,45 +2189,45 @@
         <v>149</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="H10" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P10" s="10">
         <v>7</v>
@@ -1919,51 +2245,51 @@
         <v>165</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7">
         <v>7</v>
@@ -1981,51 +2307,51 @@
         <v>136</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O12" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P12" s="7">
         <v>7</v>
@@ -2045,46 +2371,46 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7">
         <v>7</v>
@@ -2104,37 +2430,37 @@
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7"/>
       <c r="T14" s="4">
@@ -2144,42 +2470,42 @@
         <v>160</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P15" s="7"/>
       <c r="T15" s="4">
@@ -2189,45 +2515,45 @@
         <v>124</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7"/>
       <c r="T16" s="4">
@@ -2237,45 +2563,45 @@
         <v>140</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7"/>
       <c r="T17" s="4">
@@ -2285,45 +2611,45 @@
         <v>122</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="L18" s="12" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P18" s="10">
         <v>7</v>
@@ -2341,45 +2667,45 @@
         <v>128</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="M19" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7"/>
       <c r="T19" s="4">
@@ -2389,51 +2715,51 @@
         <v>148</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7">
         <v>7</v>
@@ -2450,6 +2776,12 @@
       <c r="U20" s="3">
         <v>113</v>
       </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
